--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_08-05.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_08-05.xlsx
@@ -1192,11 +1192,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis Squadmember"] "You're not just an elite operator, you're Rosmontis. We all love you, not just your team, but Rhodes Island and the Infected, everyone who hates loss and destruction... we all love you."  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis Squadmember"] So, Captain, "Think about what 'Rosmontis' would do, okay?" 
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] 'You're not just an elite operator, you're Rosmontis. We all love you, not just your team, but Rhodes Island and the Infected, everyone who hates loss and destruction... we all love you.'  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] So, Captain, 'Think about what 'Rosmontis' would do, okay?' 
 </t>
   </si>
   <si>
@@ -1620,7 +1620,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"] "Good. Be careful."  
+    <t xml:space="preserve">[name="Elysium"] 'Good. Be careful.'  
 </t>
   </si>
   <si>
@@ -1632,7 +1632,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"] "The Ursus Army is in the core city." 
+    <t xml:space="preserve">[name="Elysium"] 'The Ursus Army is in the core city.' 
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_08-05.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_08-05.xlsx
@@ -1372,7 +1372,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Pith"]  I don’t think so.
+    <t xml:space="preserve">[name="Pith"]  I don't think so.
 </t>
   </si>
   <si>
